--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_19-22.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_19-22.xlsx
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>3:0</t>
+  </si>
+  <si>
+    <t>جونتي عمال</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t>زيت دابر املا 270 مل</t>
@@ -3790,13 +3796,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
@@ -3808,7 +3814,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3816,17 +3822,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3848,11 +3854,11 @@
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3874,11 +3880,11 @@
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3900,11 +3906,11 @@
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3926,7 +3932,7 @@
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
@@ -3952,7 +3958,7 @@
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
@@ -3978,7 +3984,7 @@
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
@@ -3998,13 +4004,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
@@ -4016,7 +4022,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4030,7 +4036,7 @@
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
@@ -4042,7 +4048,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4050,51 +4056,77 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="120" ht="26.25" customHeight="1">
-      <c r="K120" s="11">
-        <v>10984.43</v>
-      </c>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
-      <c r="N120" s="11"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="12">
-        <v>152</v>
-      </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c t="s" r="F121" s="13">
+    <row r="120" ht="25.5" customHeight="1">
+      <c r="A120" s="6">
+        <v>117</v>
+      </c>
+      <c t="s" r="B120" s="7">
         <v>153</v>
       </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="14"/>
-      <c t="s" r="I121" s="15">
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c t="s" r="H120" s="8">
+        <v>11</v>
+      </c>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="9">
+        <v>300</v>
+      </c>
+      <c r="M120" s="9"/>
+      <c r="N120" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="K121" s="11">
+        <v>11034.43</v>
+      </c>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="12">
         <v>154</v>
       </c>
-      <c r="J121" s="15"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="15"/>
-      <c r="M121" s="15"/>
-      <c r="N121" s="15"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c t="s" r="F122" s="13">
+        <v>155</v>
+      </c>
+      <c r="G122" s="13"/>
+      <c r="H122" s="14"/>
+      <c t="s" r="I122" s="15">
+        <v>156</v>
+      </c>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="359">
+  <mergeCells count="362">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4450,10 +4482,13 @@
     <mergeCell ref="B119:G119"/>
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
-    <mergeCell ref="K120:N120"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="I121:N121"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="K121:N121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="I122:N122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
